--- a/biology/Botanique/Parc_Glehn/Parc_Glehn.xlsx
+++ b/biology/Botanique/Parc_Glehn/Parc_Glehn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Parc Glenh (estonien : Glehni park)  est un parc du quartier de Hiiu à Tallinn en Estonie[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Parc Glenh (estonien : Glehni park)  est un parc du quartier de Hiiu à Tallinn en Estonie. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le parc Glehn date de la fin du XIXème siècle, à l'époque où le châtelain de Jälgimäe, Nikolai von Glehn, vient s'installer dans le quartier de Nõmme. 
 En 1886, il achève la construction d’un château de style médiéval, dont il avait lui-même dessiné les plans. 
